--- a/Control 3.xlsx
+++ b/Control 3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Universidad\Ingeniería de Sistemas\4 - Cuarto Semestre\Simulación\ProyectoSimulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BDE790-1014-433B-B636-75C35406BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF638B4-95EE-4341-B0A1-0CBA313B9855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{D66F4DA7-B0BA-49DB-8660-3EB1306763B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19740" windowHeight="11760" activeTab="1" xr2:uid="{D66F4DA7-B0BA-49DB-8660-3EB1306763B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Epoch</t>
   </si>
@@ -49,6 +50,105 @@
   </si>
   <si>
     <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Exactitud</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Average Specificity</t>
+  </si>
+  <si>
+    <t>13/40</t>
+  </si>
+  <si>
+    <t>14/40</t>
+  </si>
+  <si>
+    <t>15/40</t>
+  </si>
+  <si>
+    <t>16/40</t>
+  </si>
+  <si>
+    <t>17/40</t>
+  </si>
+  <si>
+    <t>18/40</t>
+  </si>
+  <si>
+    <t>19/40</t>
+  </si>
+  <si>
+    <t>20/40</t>
+  </si>
+  <si>
+    <t>21/40</t>
+  </si>
+  <si>
+    <t>22/40</t>
+  </si>
+  <si>
+    <t>23/40</t>
+  </si>
+  <si>
+    <t>24/40</t>
+  </si>
+  <si>
+    <t>25/40</t>
+  </si>
+  <si>
+    <t>26/40</t>
+  </si>
+  <si>
+    <t>27/40</t>
+  </si>
+  <si>
+    <t>28/40</t>
+  </si>
+  <si>
+    <t>29/40</t>
+  </si>
+  <si>
+    <t>30/40</t>
+  </si>
+  <si>
+    <t>31/40</t>
+  </si>
+  <si>
+    <t>32/40</t>
+  </si>
+  <si>
+    <t>33/40</t>
+  </si>
+  <si>
+    <t>34/40</t>
+  </si>
+  <si>
+    <t>35/40</t>
+  </si>
+  <si>
+    <t>36/40</t>
+  </si>
+  <si>
+    <t>37/40</t>
+  </si>
+  <si>
+    <t>38/40</t>
+  </si>
+  <si>
+    <t>39/40</t>
+  </si>
+  <si>
+    <t>40/40</t>
   </si>
 </sst>
 </file>
@@ -90,12 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,6 +1431,404 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1"/>
+              <a:t>Exactitud</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$D$3:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE56-44E6-AA42-C06DF5E8585D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1908053520"/>
+        <c:axId val="1908055440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1908053520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908055440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1908055440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908053520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2380,6 +2881,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2897,6 +3438,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3454,6 +4511,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00B149D-5B13-1C87-976D-0C928E2306C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3813,7 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDA3513-A694-40CA-8235-4E7CAA197F48}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4818,6 +5916,1093 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283E341D-8B6E-4EB3-8005-6BAAD811495E}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>14611</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.121</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>14642</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.605</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>14671</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.601</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>14702</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.595</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.599</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>14732</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.583</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>14763</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>14793</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.383</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>14824</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.133</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>14855</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>14885</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>14916</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.496</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>14946</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.369</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.883</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.119</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.585</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.419</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.089</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.343</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.321</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.121</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.202</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F5CCA0-BFBC-4071-843F-8CFE8125CC45}">
   <dimension ref="A1:D51"/>
   <sheetViews>
